--- a/data/modified_file.xlsx
+++ b/data/modified_file.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gpain/Documents/Work_Dashboards/Oregon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01916976-C4BE-7640-96C2-F67A56C2F668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D69688B-1A0C-6A4D-84A3-7DE338C77805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="14880" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Organizations" sheetId="1" r:id="rId1"/>
     <sheet name="Programs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3450,7 +3463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3458,7 +3471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3764,7 +3776,7 @@
   <dimension ref="A1:CD79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3789,7 +3801,7 @@
     <col min="18" max="18" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.1640625" customWidth="1"/>
     <col min="22" max="23" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
@@ -3852,7 +3864,7 @@
     <col min="82" max="82" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7757,7 +7769,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:81" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>379</v>
       </c>
@@ -10138,7 +10150,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:81" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>545</v>
       </c>
@@ -11317,7 +11329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:81" s="2" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>633</v>
       </c>
@@ -11837,7 +11849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:81" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>675</v>
       </c>
@@ -11893,7 +11905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:81" s="2" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:81" s="2" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>680</v>
       </c>
@@ -12365,8 +12377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BG52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12379,7 +12391,7 @@
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.83203125" customWidth="1"/>
     <col min="10" max="10" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
